--- a/branches/jembi-contrib-fresh/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/jembi-contrib-fresh/StructureDefinition-hiv-episode-of-care.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T07:37:47+00:00</t>
+    <t>2021-09-07T11:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/jembi-contrib-fresh/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/jembi-contrib-fresh/StructureDefinition-hiv-episode-of-care.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$45</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="310">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T11:28:37+00:00</t>
+    <t>2021-09-16T07:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -475,6 +475,187 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>EpisodeOfCare.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-casereporting/identifier/enrollment-unique-id</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
     <t>EpisodeOfCare.status</t>
   </si>
   <si>
@@ -485,9 +666,6 @@
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the episode as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>The status of the episode of care.</t>
@@ -518,22 +696,7 @@
     <t>EpisodeOfCare.statusHistory.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>EpisodeOfCare.statusHistory.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>EpisodeOfCare.statusHistory.modifierExtension</t>
@@ -559,10 +722,6 @@
     <t>EpisodeOfCare.statusHistory.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Duration the EpisodeOfCare was in the specified status</t>
   </si>
   <si>
@@ -570,10 +729,6 @@
   </si>
   <si>
     <t>EpisodeOfCare.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Type/class  - e.g. specialist referral, disease management</t>
@@ -687,10 +842,6 @@
     <t>EpisodeOfCare.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>Organization that assumes care</t>
   </si>
   <si>
@@ -719,16 +870,6 @@
   </si>
   <si>
     <t>EpisodeOfCare.period.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>EpisodeOfCare.period.start</t>
@@ -1155,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL37"/>
+  <dimension ref="A1:AL45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1187,7 +1328,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="44.7265625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="52.078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
@@ -1200,7 +1341,7 @@
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2406,7 +2547,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>84</v>
@@ -2415,13 +2556,13 @@
         <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>148</v>
@@ -2429,9 +2570,7 @@
       <c r="L12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>77</v>
@@ -2456,13 +2595,13 @@
         <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>77</v>
@@ -2480,10 +2619,10 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>84</v>
@@ -2492,25 +2631,25 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2529,15 +2668,17 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>77</v>
@@ -2574,16 +2715,16 @@
         <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>156</v>
@@ -2598,13 +2739,13 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
@@ -2612,7 +2753,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2629,22 +2770,26 @@
         <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>77</v>
       </c>
@@ -2668,13 +2813,13 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
@@ -2692,7 +2837,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2704,13 +2849,13 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>77</v>
@@ -2718,18 +2863,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -2738,21 +2883,23 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
       </c>
@@ -2776,13 +2923,13 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
@@ -2800,25 +2947,25 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -2826,42 +2973,42 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -2871,10 +3018,10 @@
         <v>77</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>77</v>
@@ -2910,25 +3057,25 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -2936,7 +3083,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2944,7 +3091,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>84</v>
@@ -2956,18 +3103,20 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -2980,7 +3129,7 @@
         <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>77</v>
@@ -2992,13 +3141,13 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
@@ -3016,10 +3165,10 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>84</v>
@@ -3034,7 +3183,7 @@
         <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3042,7 +3191,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3050,7 +3199,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>84</v>
@@ -3062,16 +3211,16 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3122,10 +3271,10 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>84</v>
@@ -3140,7 +3289,7 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -3148,7 +3297,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3159,7 +3308,7 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
@@ -3171,16 +3320,16 @@
         <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3206,13 +3355,13 @@
         <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>77</v>
@@ -3230,13 +3379,13 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
@@ -3245,18 +3394,18 @@
         <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3270,24 +3419,26 @@
         <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -3312,13 +3463,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -3336,13 +3487,13 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
@@ -3351,18 +3502,18 @@
         <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3373,7 +3524,7 @@
         <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>77</v>
@@ -3385,13 +3536,13 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3442,25 +3593,25 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -3468,18 +3619,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>77</v>
@@ -3491,17 +3642,15 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -3550,19 +3699,19 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>77</v>
@@ -3576,11 +3725,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3593,26 +3742,24 @@
         <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
       </c>
@@ -3660,7 +3807,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3678,7 +3825,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -3686,39 +3833,43 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>77</v>
       </c>
@@ -3766,33 +3917,33 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3800,7 +3951,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>84</v>
@@ -3812,16 +3963,16 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3848,13 +3999,13 @@
         <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>77</v>
@@ -3872,10 +4023,10 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>84</v>
@@ -3898,7 +4049,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3906,7 +4057,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>84</v>
@@ -3918,16 +4069,16 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3978,10 +4129,10 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>84</v>
@@ -4004,7 +4155,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4012,10 +4163,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>77</v>
@@ -4027,15 +4178,17 @@
         <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4060,13 +4213,13 @@
         <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>77</v>
@@ -4084,13 +4237,13 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
@@ -4099,18 +4252,18 @@
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4136,10 +4289,10 @@
         <v>215</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4190,13 +4343,13 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
@@ -4205,7 +4358,7 @@
         <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
@@ -4216,7 +4369,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4236,16 +4389,16 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4296,7 +4449,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4308,32 +4461,32 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
@@ -4345,15 +4498,17 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -4402,19 +4557,19 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
@@ -4428,11 +4583,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4445,24 +4600,26 @@
         <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="N31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
@@ -4498,19 +4655,19 @@
         <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4528,15 +4685,15 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4550,7 +4707,7 @@
         <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -4559,17 +4716,15 @@
         <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -4618,33 +4773,33 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4667,24 +4822,20 @@
         <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P33" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
         <v>77</v>
       </c>
@@ -4704,13 +4855,13 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -4728,7 +4879,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -4737,7 +4888,7 @@
         <v>84</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>96</v>
@@ -4746,7 +4897,7 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -4754,7 +4905,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4765,7 +4916,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -4774,16 +4925,16 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4834,13 +4985,13 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
@@ -4849,7 +5000,7 @@
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -4860,7 +5011,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4868,7 +5019,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>84</v>
@@ -4880,16 +5031,16 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4940,10 +5091,10 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>84</v>
@@ -4955,47 +5106,47 @@
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" hidden="true">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5046,13 +5197,13 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
@@ -5061,7 +5212,7 @@
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -5072,7 +5223,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5083,7 +5234,7 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -5092,20 +5243,18 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -5154,13 +5303,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -5169,17 +5318,875 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Q41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL37">
+  <autoFilter ref="A1:AL45">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5189,7 +6196,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI36">
+  <conditionalFormatting sqref="A2:AI44">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
